--- a/biology/Botanique/Priorat_(DOC)/Priorat_(DOC).xlsx
+++ b/biology/Botanique/Priorat_(DOC)/Priorat_(DOC).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Priorat est une D.O.C. (Denominación de Origen Calificada) ou D.O.Q. (Denominació d'Origen Qualificada) en catalan, de Catalogne, une des trois seules appellations d'origine d'Espagne à jouir de cette distinction supplémentaire avec les appellations Rioja et Ribera del Duero.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La région du Priorat faisait partie depuis le Moyen-Âge des régions vinicoles les plus connues en Espagne.  Au XIIe siècle, les moines de l'ordre des Chartreux venus de Provence fondent la Chartreuse de Scala Dei, premier de cet ordre en Espagne depuis le début de la reconquête chrétienne de la péninsule hispanique, et participent au développement viticole. Mais, c'est seulement depuis les années 1970 que cette appellation, alors un peu oubliée, est devenue l'une des plus recherchées du pays[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La région du Priorat faisait partie depuis le Moyen-Âge des régions vinicoles les plus connues en Espagne.  Au XIIe siècle, les moines de l'ordre des Chartreux venus de Provence fondent la Chartreuse de Scala Dei, premier de cet ordre en Espagne depuis le début de la reconquête chrétienne de la péninsule hispanique, et participent au développement viticole. Mais, c'est seulement depuis les années 1970 que cette appellation, alors un peu oubliée, est devenue l'une des plus recherchées du pays.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de l'appellation vient du prieuré des Chartreux, priorat en catalan, priorato en espagnol, fondateur historique du vignoble.
 </t>
@@ -574,13 +590,12 @@
           <t>Situation géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La principale caractéristique du Priorat consiste dans sa situation géographique. C'est une région vinicole qui est fermée sur elle-même, entourée par une couronne de montagnes raides et qui s'ouvre seulement sur le Sud-Est en direction de la mer. À l'intérieur de cette région se trouvent des vallées étroites dans lesquelles la vigne est cultivée sur des pentes raides ou en terrasse ce qui a pour conséquence que souvent elles ne peuvent être travaillées que manuellement[1]. Son territoire est exigu.
-Orographie
-Géologie
-Les vignes sont situées entre 250 et 700 m d'altitude sur des terrains rocheux typiquement composés de schistes (appelés llicorella en catalan)[1]. 
-Climatologie</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La principale caractéristique du Priorat consiste dans sa situation géographique. C'est une région vinicole qui est fermée sur elle-même, entourée par une couronne de montagnes raides et qui s'ouvre seulement sur le Sud-Est en direction de la mer. À l'intérieur de cette région se trouvent des vallées étroites dans lesquelles la vigne est cultivée sur des pentes raides ou en terrasse ce qui a pour conséquence que souvent elles ne peuvent être travaillées que manuellement. Son territoire est exigu.
+</t>
         </is>
       </c>
     </row>
@@ -605,19 +620,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Vignoble</t>
+          <t>Situation géographique</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Présentation
-Cette DOC compte environ 1000 hectares[2].
-Lieux-dits
-Encépagement
-Depuis les temps les plus anciens, le grenache a été cultivé dans la région. Après le phylloxéra, le carignan N a gagné en importance[1]. Aujourd'hui, les cépages utilisés sont, entre autres, le mazuelo (carignan N), le grenache, la syrah et le cabernet. David Schwarzwälder considère le grenache comme l'un des atouts de la région[1]
-Méthodes culturales
-Rendements
-Les rendements sont très bas du fait de la nature des sols car les racines de la vigne doivent aller profondément pour trouver de l'eau[1].
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vignes sont situées entre 250 et 700 m d'altitude sur des terrains rocheux typiquement composés de schistes (appelés llicorella en catalan). 
 </t>
         </is>
       </c>
@@ -643,16 +657,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Vins</t>
+          <t>Vignoble</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Titre alcoométrique volumique minimal et maximal
-Vinification et élevage
-Terroir et vins
-Gastronomie, durée de garde et température de service
-Millésimes</t>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette DOC compte environ 1000 hectares.
+</t>
         </is>
       </c>
     </row>
@@ -677,15 +694,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Économie</t>
+          <t>Vignoble</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Réglementation
-Commercialisation
-Structure des exploitations
-Listes des producteurs</t>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis les temps les plus anciens, le grenache a été cultivé dans la région. Après le phylloxéra, le carignan N a gagné en importance. Aujourd'hui, les cépages utilisés sont, entre autres, le mazuelo (carignan N), le grenache, la syrah et le cabernet. David Schwarzwälder considère le grenache comme l'un des atouts de la région
+</t>
         </is>
       </c>
     </row>
@@ -710,10 +731,49 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Rendements</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les rendements sont très bas du fait de la nature des sols car les racines de la vigne doivent aller profondément pour trouver de l'eau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Priorat_(DOC)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Priorat_(DOC)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Les principaux producteurs de l'appellation</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
